--- a/doc/03_内部設計/03_ファイル構成一覧表_B3ビーチサンダル.xlsx
+++ b/doc/03_内部設計/03_ファイル構成一覧表_B3ビーチサンダル.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27809"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NextCloud\内部共有用\04_取引案件別\19_SEプラス\2024_Dojo\6月\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/ganbat-nomin-eredene-plusdojo2024_seplus2016_onmicrosoft_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE3A67F-EAA6-4199-8272-F4FAB37202CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65F615A4-AE70-4D5E-8815-7A2A327ECE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10520" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="20736" windowHeight="10656" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$39</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +29,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="140">
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -49,6 +56,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ファイルパス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ファイル名</t>
     <rPh sb="4" eb="5">
       <t>ナ</t>
@@ -56,20 +67,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイルパス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>担当者</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -117,10 +117,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ステータス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>進捗度</t>
     <rPh sb="0" eb="2">
       <t>シンチョク</t>
@@ -131,11 +127,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>未着手</t>
     <rPh sb="0" eb="3">
       <t>ミチャクシュ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>servlet</t>
+  </si>
+  <si>
+    <t>LoginServlet.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ログイン画面初期表示、ログイン処理用。
+</t>
   </si>
   <si>
     <t>着手済み</t>
@@ -148,6 +164,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>LogoutServlet.java</t>
+  </si>
+  <si>
+    <t>ログアウト画面表示</t>
+  </si>
+  <si>
     <t>待ち状態</t>
     <rPh sb="0" eb="1">
       <t>マ</t>
@@ -158,6 +180,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>HomeServlet.java</t>
+  </si>
+  <si>
+    <t>ホーム画面表示</t>
+  </si>
+  <si>
     <t>未テスト</t>
     <rPh sb="0" eb="1">
       <t>ミ</t>
@@ -165,18 +193,364 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>RegistServlet.java</t>
+  </si>
+  <si>
+    <t>お客様情報登録画面表示</t>
+  </si>
+  <si>
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>SearchServlet.java</t>
+  </si>
+  <si>
+    <t>お客様情報検索画面表示</t>
+  </si>
+  <si>
+    <t>SignupServlet.java</t>
+  </si>
+  <si>
+    <t>サインアップ画面表示</t>
+  </si>
+  <si>
+    <t>UpdateServlet.java</t>
+  </si>
+  <si>
+    <t>お客様情報編集画面表示</t>
+  </si>
+  <si>
+    <t>SimulationServlet.java</t>
+  </si>
+  <si>
+    <t>シミュレーション画面表示</t>
+  </si>
+  <si>
+    <t>MypageServlet.java</t>
+  </si>
+  <si>
+    <t>マイページ画面表示</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Employees.java</t>
+  </si>
+  <si>
+    <t>社員IDテーブルのデータ保持用クラス</t>
+  </si>
+  <si>
+    <t>Simulation.java</t>
+  </si>
+  <si>
+    <t>シミュレーションテーブルのデータ保持用クラス</t>
+  </si>
+  <si>
+    <t>Customer.java</t>
+  </si>
+  <si>
+    <t>お客様情報テーブルのデータ保持用クラス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java </t>
+  </si>
+  <si>
+    <t>dao</t>
+  </si>
+  <si>
+    <t>EmployeesDao.java</t>
+  </si>
+  <si>
+    <t>社員IDテーブルアクセス用DAO</t>
+  </si>
+  <si>
+    <t>CustomerDao.java</t>
+  </si>
+  <si>
+    <t>お客様情報テーブルアクセス用DAO</t>
+  </si>
+  <si>
+    <t>SimulationResultDao.java</t>
+  </si>
+  <si>
+    <t>シミュレーション結果アクセス用DAO</t>
+  </si>
+  <si>
+    <t>SimulationTablesDao.java</t>
+  </si>
+  <si>
+    <t>シミュレーションテーブルクロスアクセス用DAO</t>
+  </si>
+  <si>
+    <t>SimulationTablecoversDao.java</t>
+  </si>
+  <si>
+    <t>シミュレーションテーブルトップカバーアクセス用DAO</t>
+  </si>
+  <si>
+    <t>SimulationChairsDao.java</t>
+  </si>
+  <si>
+    <t>シミュレーションチェアアクセス用DAO</t>
+  </si>
+  <si>
+    <t>SimulationNapkinsDao.java</t>
+  </si>
+  <si>
+    <t>シミュレーションナプキンアクセス用DAO</t>
+  </si>
+  <si>
+    <t>SimulationFlowersDao.java</t>
+  </si>
+  <si>
+    <t>シミュレーションフラワーアクセス用DAO</t>
+  </si>
+  <si>
+    <t>SimulationClothesDao.java</t>
+  </si>
+  <si>
+    <t>シミュレーションドレスアクセス用DAO</t>
+  </si>
+  <si>
+    <t>SimulationCakesDao.java</t>
+  </si>
+  <si>
+    <t>シミュレーションケーキアクセス用DAO</t>
+  </si>
+  <si>
+    <t>SimulationCaketopsDao.java</t>
+  </si>
+  <si>
+    <t>シミュレーションケーキトップアクセス用DAO</t>
+  </si>
+  <si>
+    <t>SimulationInvationsDao.java</t>
+  </si>
+  <si>
+    <t>シミュレーション招待状アクセス用DAO</t>
+  </si>
+  <si>
+    <t>SimulationNameplatesDao.java</t>
+  </si>
+  <si>
+    <t>シミュレーションネームプレートアクセス用DAO</t>
+  </si>
+  <si>
+    <t>SimulationTablemembersDao.java</t>
+  </si>
+  <si>
+    <t>シミュレーション席配置アクセス用DAO</t>
+  </si>
+  <si>
+    <t>OrderlistsDao.java</t>
+  </si>
+  <si>
+    <t>発注リストアクセス用DAO</t>
+  </si>
+  <si>
+    <t>TodayslistDao.java</t>
+  </si>
+  <si>
+    <t>当日リストアクセス用DAO</t>
+  </si>
+  <si>
+    <t>SurveysDao.java</t>
+  </si>
+  <si>
+    <t>式後アンケート用DAO</t>
+  </si>
+  <si>
+    <t>ReportsDao.java</t>
+  </si>
+  <si>
+    <t>報告書用DAO</t>
+  </si>
+  <si>
+    <t>MemosDao.java</t>
+  </si>
+  <si>
+    <t>CompaniesDao.java</t>
+  </si>
+  <si>
+    <t>jsp</t>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/jsp</t>
+  </si>
+  <si>
+    <t>login.jsp</t>
+  </si>
+  <si>
+    <t>ログイン画面用jsp。</t>
+  </si>
+  <si>
+    <t>home.jsp</t>
+  </si>
+  <si>
+    <t>ホーム画面用JSP。</t>
+  </si>
+  <si>
+    <t>regist.jsp</t>
+  </si>
+  <si>
+    <t>登録画面用JSP。</t>
+  </si>
+  <si>
+    <t>search.jsp</t>
+  </si>
+  <si>
+    <t>検索画面用JSP。</t>
+  </si>
+  <si>
+    <t>result.jsp</t>
+  </si>
+  <si>
+    <t>検査結果画面用JSP。</t>
+  </si>
+  <si>
+    <t>mypage.jsp</t>
+  </si>
+  <si>
+    <t>マイページ画面用JSP。</t>
+  </si>
+  <si>
+    <t>edit.jsp</t>
+  </si>
+  <si>
+    <t>お客様情報編集画面用JSP。</t>
+  </si>
+  <si>
+    <t>orderlist.jsp</t>
+  </si>
+  <si>
+    <t>発注リスト画面用JSP。</t>
+  </si>
+  <si>
+    <t>todaylist.jsp</t>
+  </si>
+  <si>
+    <t>当日リスト画面用JSP。</t>
+  </si>
+  <si>
+    <t>simulation.jsp</t>
+  </si>
+  <si>
+    <t>シミュレーション結果画面用JSP。</t>
+  </si>
+  <si>
+    <t>report.jsp</t>
+  </si>
+  <si>
+    <t>報告書画面用JSP。</t>
+  </si>
+  <si>
+    <t>survey.jsp</t>
+  </si>
+  <si>
+    <t>アンケート画面用JSP。</t>
+  </si>
+  <si>
+    <t>javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WebContent/js
+</t>
+  </si>
+  <si>
+    <t>common.js</t>
+  </si>
+  <si>
+    <t>全画面共通JavaScript</t>
+  </si>
+  <si>
+    <t>login.js</t>
+  </si>
+  <si>
+    <t>ログイン画面用JavaScript</t>
+  </si>
+  <si>
+    <t>simulation.js</t>
+  </si>
+  <si>
+    <t>シミュレーション画面用JavaScript</t>
+  </si>
+  <si>
+    <t>result.js</t>
+  </si>
+  <si>
+    <t>お客様情報検索結果画面用JavaScript</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>WebContent/css</t>
+  </si>
+  <si>
+    <t>common.css</t>
+  </si>
+  <si>
+    <t>ヘッダー、フッター、ホーム画面、マイページ、ハンバーガーメニュー用css</t>
+  </si>
+  <si>
+    <t>login.css</t>
+  </si>
+  <si>
+    <t>ログイン画面用css</t>
+  </si>
+  <si>
+    <t>simulation.css</t>
+  </si>
+  <si>
+    <t>シミュレーション選択画面、内装/服装/ケーキ/カード/席配置/ケーキトップシミュレーション画面用css</t>
+  </si>
+  <si>
+    <t>search.css</t>
+  </si>
+  <si>
+    <t>検索、検索結果用css</t>
+  </si>
+  <si>
+    <t>todayslist.css</t>
+  </si>
+  <si>
+    <t>当日リスト用css</t>
+  </si>
+  <si>
+    <t>orderlist.css</t>
+  </si>
+  <si>
+    <t>発注リスト用css</t>
+  </si>
+  <si>
+    <t>survey.css</t>
+  </si>
+  <si>
+    <t>式後アンケート画面用css</t>
+  </si>
+  <si>
+    <t>report.css</t>
+  </si>
+  <si>
+    <t>報告書画面用css</t>
+  </si>
+  <si>
+    <t>regist.css</t>
+  </si>
+  <si>
+    <t>お客様情報登録用css</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +565,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Yu Gothic"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -207,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -230,13 +610,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,6 +737,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -264,9 +787,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -304,7 +827,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -410,7 +933,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -552,7 +1075,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -560,44 +1083,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
     <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
@@ -612,16 +1135,16 @@
         <v>9</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:14" ht="15.75">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -629,10 +1152,18 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -641,18 +1172,26 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <f>ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:C36" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -661,18 +1200,26 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <f>ROW()-2</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -681,18 +1228,26 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>4</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -701,18 +1256,26 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>5</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -721,15 +1284,23 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14">
       <c r="C8" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>6</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -738,15 +1309,23 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14">
       <c r="C9" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>7</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -755,15 +1334,23 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75">
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>8</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -772,15 +1359,23 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75">
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>9</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -789,15 +1384,23 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75">
       <c r="C12" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>10</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -806,15 +1409,23 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75">
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>11</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -823,15 +1434,23 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75">
       <c r="C14" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>12</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="D14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -840,16 +1459,24 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75">
       <c r="C15" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>13</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="D15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="7"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -857,16 +1484,24 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75">
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>14</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="D16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="7"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -874,16 +1509,24 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:14" ht="15.75">
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>15</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="D17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="7"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -891,16 +1534,24 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:14" ht="15.75">
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>16</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="D18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="7"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -908,16 +1559,24 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:14" ht="15.75">
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>17</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="D19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="7"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -925,16 +1584,24 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:14" ht="15.75">
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>18</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="D20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="7"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -942,16 +1609,24 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:14" ht="15.75">
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>19</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="D21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -959,16 +1634,24 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:14" ht="15.75">
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>20</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="D22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="7"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -976,16 +1659,24 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:14" ht="15.75">
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>21</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="D23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="7"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -993,16 +1684,24 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:14" ht="15.75">
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>22</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="D24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="7"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1010,16 +1709,24 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:14" ht="15.75">
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>23</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="D25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="7"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1027,16 +1734,24 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:14" ht="15.75">
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>24</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="D26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="7"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1044,16 +1759,24 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:14" ht="15.75">
       <c r="C27" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>25</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="D27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="7"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1061,16 +1784,24 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:14" ht="15.75">
       <c r="C28" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>26</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="D28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="7"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1078,16 +1809,24 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:14" ht="15.75">
       <c r="C29" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>27</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="D29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="7"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1095,16 +1834,24 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:14" ht="15.75">
       <c r="C30" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>28</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="D30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="7"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1112,16 +1859,24 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:14" ht="15.75">
       <c r="C31" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>29</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="D31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="7"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1129,16 +1884,24 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:14" ht="15.75">
       <c r="C32" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>30</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="D32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="7"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1146,16 +1909,22 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:14" ht="15.75">
       <c r="C33" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>31</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="D33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1163,16 +1932,22 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:14" ht="15.75">
       <c r="C34" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>32</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="D34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="7"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1180,15 +1955,23 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:14" ht="15.75">
       <c r="C35" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>33</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="D35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1197,15 +1980,23 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:14" ht="15.75">
       <c r="C36" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>34</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1214,11 +2005,588 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
+    <row r="37" spans="3:14" ht="15.75">
+      <c r="C37" s="1">
+        <f>ROW()-2</f>
+        <v>35</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="3:14" ht="15.75">
+      <c r="C38" s="1">
+        <f>ROW()-2</f>
+        <v>36</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="3:14" ht="15.75">
+      <c r="C39" s="1">
+        <f>ROW()-2</f>
+        <v>37</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="3:14" ht="15.75">
+      <c r="C40" s="1">
+        <f>ROW()-2</f>
+        <v>38</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="3:14" ht="15.75">
+      <c r="C41" s="1">
+        <f>ROW()-2</f>
+        <v>39</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="3:14" ht="15.75">
+      <c r="C42" s="1">
+        <f>ROW()-2</f>
+        <v>40</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="3:14" ht="15.75">
+      <c r="C43" s="1">
+        <f>ROW()-2</f>
+        <v>41</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="3:14" ht="15.75">
+      <c r="C44" s="1">
+        <f>ROW()-2</f>
+        <v>42</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="3:14" ht="15.75">
+      <c r="C45" s="1">
+        <f>ROW()-2</f>
+        <v>43</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="3:14" ht="15.75">
+      <c r="C46" s="1">
+        <f>ROW()-2</f>
+        <v>44</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="3:14" ht="15.75">
+      <c r="C47" s="1">
+        <f>ROW()-2</f>
+        <v>45</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="3:14" ht="15.75">
+      <c r="C48" s="1">
+        <f>ROW()-2</f>
+        <v>46</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="3:14" ht="15.75">
+      <c r="C49" s="1">
+        <f>ROW()-2</f>
+        <v>47</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="3:14" ht="15.75">
+      <c r="C50" s="1">
+        <f>ROW()-2</f>
+        <v>48</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="3:14" ht="15.75">
+      <c r="C51" s="1">
+        <f>ROW()-2</f>
+        <v>49</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="3:14" ht="15.75">
+      <c r="C52" s="1">
+        <f>ROW()-2</f>
+        <v>50</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="3:14" ht="15.75">
+      <c r="C53" s="1">
+        <f>ROW()-2</f>
+        <v>51</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="3:14" ht="15.75">
+      <c r="C54" s="1">
+        <f>ROW()-2</f>
+        <v>52</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="3:14" ht="15.75">
+      <c r="C55" s="1">
+        <f>ROW()-2</f>
+        <v>53</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="3:14" ht="15.75">
+      <c r="C56" s="1">
+        <f>ROW()-2</f>
+        <v>54</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="3:14" ht="15.75">
+      <c r="C57" s="1">
+        <f>ROW()-2</f>
+        <v>55</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="3:14" ht="15.75">
+      <c r="C58" s="1">
+        <f>ROW()-2</f>
+        <v>56</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="3:14" ht="15.75">
+      <c r="C59" s="1">
+        <f>ROW()-2</f>
+        <v>57</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H59" s="7"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="3:14" ht="15.75"/>
+    <row r="61" spans="3:14" ht="15.75"/>
   </sheetData>
-  <autoFilter ref="C2:N25" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N39" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M36" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M59" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -1227,16 +2595,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
-    <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <xsd:import namespace="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D3AB27C864B3094F9396A6D72E012482" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e86a78ae2217ee468b580972768cd923">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87cf0ee8-fe20-4b5a-8adf-0a4439756175" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="06d18bf642e82ddeacf7ee384d94a5f5" ns3:_="">
+    <xsd:import namespace="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1245,9 +2606,10 @@
               <xsd:all>
                 <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1255,7 +2617,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f11e5c67-cf10-45fe-9586-3550a4dd026c" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="87cf0ee8-fe20-4b5a-8adf-0a4439756175" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1268,39 +2630,24 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="01c64581-d9a7-4bf3-8493-a30fa4f21230" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="共有のヒントのハッシュ" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="13" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1403,6 +2750,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1413,45 +2768,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{441A5CFB-4FAC-4483-9ACB-60F5420E0F6F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}"/>
 </file>
--- a/doc/03_内部設計/03_ファイル構成一覧表_B3ビーチサンダル.xlsx
+++ b/doc/03_内部設計/03_ファイル構成一覧表_B3ビーチサンダル.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/ganbat-nomin-eredene-plusdojo2024_seplus2016_onmicrosoft_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B3\doc\03_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65F615A4-AE70-4D5E-8815-7A2A327ECE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266D525C-3107-435E-BD6F-E3AEC898AD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="20736" windowHeight="10656" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="20736" windowHeight="10656" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,8 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Yu Gothic"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -787,9 +788,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -827,7 +828,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -933,7 +934,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1075,7 +1076,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1083,22 +1084,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.59765625" customWidth="1"/>
+    <col min="7" max="7" width="50.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="14" max="14" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1144,12 +1145,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" ref="C3:C34" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1177,7 +1178,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1205,7 +1206,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1233,7 +1234,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1261,7 +1262,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1286,7 +1287,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="C8" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1311,7 +1312,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="C9" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1334,9 +1335,9 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75">
+    <row r="10" spans="1:14">
       <c r="C10" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1359,9 +1360,9 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75">
+    <row r="11" spans="1:14">
       <c r="C11" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1384,9 +1385,9 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75">
+    <row r="12" spans="1:14">
       <c r="C12" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1409,9 +1410,9 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75">
+    <row r="13" spans="1:14">
       <c r="C13" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1434,9 +1435,9 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75">
+    <row r="14" spans="1:14">
       <c r="C14" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -1459,9 +1460,9 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75">
+    <row r="15" spans="1:14">
       <c r="C15" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1484,9 +1485,9 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75">
+    <row r="16" spans="1:14">
       <c r="C16" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1509,9 +1510,9 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="3:14" ht="15.75">
+    <row r="17" spans="3:14">
       <c r="C17" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1534,9 +1535,9 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="3:14" ht="15.75">
+    <row r="18" spans="3:14">
       <c r="C18" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1559,9 +1560,9 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="3:14" ht="15.75">
+    <row r="19" spans="3:14">
       <c r="C19" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1584,9 +1585,9 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="3:14" ht="15.75">
+    <row r="20" spans="3:14">
       <c r="C20" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -1609,9 +1610,9 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="3:14" ht="15.75">
+    <row r="21" spans="3:14">
       <c r="C21" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -1634,9 +1635,9 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="3:14" ht="15.75">
+    <row r="22" spans="3:14">
       <c r="C22" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -1659,9 +1660,9 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="3:14" ht="15.75">
+    <row r="23" spans="3:14">
       <c r="C23" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -1684,9 +1685,9 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="3:14" ht="15.75">
+    <row r="24" spans="3:14">
       <c r="C24" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -1709,9 +1710,9 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="3:14" ht="15.75">
+    <row r="25" spans="3:14">
       <c r="C25" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -1734,9 +1735,9 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="3:14" ht="15.75">
+    <row r="26" spans="3:14">
       <c r="C26" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -1759,9 +1760,9 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="3:14" ht="15.75">
+    <row r="27" spans="3:14">
       <c r="C27" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -1784,9 +1785,9 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="3:14" ht="15.75">
+    <row r="28" spans="3:14">
       <c r="C28" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -1809,9 +1810,9 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="3:14" ht="15.75">
+    <row r="29" spans="3:14">
       <c r="C29" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -1834,9 +1835,9 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="3:14" ht="15.75">
+    <row r="30" spans="3:14">
       <c r="C30" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -1859,9 +1860,9 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="3:14" ht="15.75">
+    <row r="31" spans="3:14">
       <c r="C31" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -1884,9 +1885,9 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="3:14" ht="15.75">
+    <row r="32" spans="3:14">
       <c r="C32" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -1909,9 +1910,9 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="3:14" ht="15.75">
+    <row r="33" spans="3:14">
       <c r="C33" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -1932,9 +1933,9 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="3:14" ht="15.75">
+    <row r="34" spans="3:14">
       <c r="C34" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -1955,9 +1956,9 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="3:14" ht="15.75">
+    <row r="35" spans="3:14">
       <c r="C35" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" ref="C35:C59" si="1">ROW()-2</f>
         <v>33</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -1980,9 +1981,9 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="3:14" ht="15.75">
+    <row r="36" spans="3:14">
       <c r="C36" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -2005,9 +2006,9 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="3:14" ht="15.75">
+    <row r="37" spans="3:14">
       <c r="C37" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -2030,9 +2031,9 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="3:14" ht="15.75">
+    <row r="38" spans="3:14">
       <c r="C38" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -2055,9 +2056,9 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="3:14" ht="15.75">
+    <row r="39" spans="3:14">
       <c r="C39" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -2080,9 +2081,9 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:14" ht="15.75">
+    <row r="40" spans="3:14">
       <c r="C40" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -2105,9 +2106,9 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="3:14" ht="15.75">
+    <row r="41" spans="3:14">
       <c r="C41" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -2130,9 +2131,9 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="3:14" ht="15.75">
+    <row r="42" spans="3:14">
       <c r="C42" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -2155,9 +2156,9 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="3:14" ht="15.75">
+    <row r="43" spans="3:14">
       <c r="C43" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -2180,9 +2181,9 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="3:14" ht="15.75">
+    <row r="44" spans="3:14">
       <c r="C44" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -2205,9 +2206,9 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="3:14" ht="15.75">
+    <row r="45" spans="3:14">
       <c r="C45" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -2230,9 +2231,9 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="3:14" ht="15.75">
+    <row r="46" spans="3:14">
       <c r="C46" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="D46" s="8" t="s">
@@ -2255,9 +2256,9 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="3:14" ht="15.75">
+    <row r="47" spans="3:14">
       <c r="C47" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -2280,9 +2281,9 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="3:14" ht="15.75">
+    <row r="48" spans="3:14">
       <c r="C48" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -2305,9 +2306,9 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="3:14" ht="15.75">
+    <row r="49" spans="3:14">
       <c r="C49" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -2330,9 +2331,9 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="3:14" ht="15.75">
+    <row r="50" spans="3:14">
       <c r="C50" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -2355,9 +2356,9 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="3:14" ht="15.75">
+    <row r="51" spans="3:14">
       <c r="C51" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -2380,9 +2381,9 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="3:14" ht="15.75">
+    <row r="52" spans="3:14">
       <c r="C52" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -2405,9 +2406,9 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="3:14" ht="15.75">
+    <row r="53" spans="3:14">
       <c r="C53" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -2430,9 +2431,9 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="3:14" ht="15.75">
+    <row r="54" spans="3:14">
       <c r="C54" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -2455,9 +2456,9 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="3:14" ht="15.75">
+    <row r="55" spans="3:14">
       <c r="C55" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -2480,9 +2481,9 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="3:14" ht="15.75">
+    <row r="56" spans="3:14">
       <c r="C56" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -2505,9 +2506,9 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" ht="15.75">
+    <row r="57" spans="3:14">
       <c r="C57" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -2530,9 +2531,9 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" ht="15.75">
+    <row r="58" spans="3:14">
       <c r="C58" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -2555,9 +2556,9 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" ht="15.75">
+    <row r="59" spans="3:14">
       <c r="C59" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -2580,8 +2581,6 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" ht="15.75"/>
-    <row r="61" spans="3:14" ht="15.75"/>
   </sheetData>
   <autoFilter ref="C2:N39" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
@@ -2595,6 +2594,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D3AB27C864B3094F9396A6D72E012482" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e86a78ae2217ee468b580972768cd923">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87cf0ee8-fe20-4b5a-8adf-0a4439756175" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="06d18bf642e82ddeacf7ee384d94a5f5" ns3:_="">
     <xsd:import namespace="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
@@ -2750,14 +2757,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2768,13 +2767,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{441A5CFB-4FAC-4483-9ACB-60F5420E0F6F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{441A5CFB-4FAC-4483-9ACB-60F5420E0F6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>